--- a/data/numerator.xlsx
+++ b/data/numerator.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -205,7 +205,10 @@
     <t xml:space="preserve">О3</t>
   </si>
   <si>
-    <t xml:space="preserve">О4</t>
+    <t xml:space="preserve">Счет-фактура</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OФ</t>
   </si>
   <si>
     <t xml:space="preserve">Оптовый прайс</t>
@@ -463,11 +466,11 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.38"/>
@@ -1103,10 +1106,10 @@
     </row>
     <row r="27" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>1</v>
@@ -1127,10 +1130,10 @@
     </row>
     <row r="28" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>1</v>
@@ -1151,10 +1154,10 @@
     </row>
     <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>1</v>
@@ -1175,10 +1178,10 @@
     </row>
     <row r="30" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>1</v>
@@ -1199,10 +1202,10 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>1</v>
@@ -1223,10 +1226,10 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>1</v>
@@ -1247,10 +1250,10 @@
     </row>
     <row r="33" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>1</v>
@@ -1271,10 +1274,10 @@
     </row>
     <row r="34" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>1</v>
@@ -1295,10 +1298,10 @@
     </row>
     <row r="35" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>1</v>
@@ -1319,10 +1322,10 @@
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>1</v>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="37" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>1</v>
@@ -1367,10 +1370,10 @@
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>1</v>
@@ -1391,10 +1394,10 @@
     </row>
     <row r="39" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>1</v>
@@ -1415,10 +1418,10 @@
     </row>
     <row r="40" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>1</v>
@@ -1439,10 +1442,10 @@
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>1</v>
@@ -1463,10 +1466,10 @@
     </row>
     <row r="42" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>1</v>
@@ -1487,10 +1490,10 @@
     </row>
     <row r="43" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>1</v>
@@ -1511,10 +1514,10 @@
     </row>
     <row r="44" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>1</v>
@@ -1535,10 +1538,10 @@
     </row>
     <row r="45" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>1</v>
@@ -1559,10 +1562,10 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>1</v>
@@ -1583,10 +1586,10 @@
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>1</v>

--- a/data/numerator.xlsx
+++ b/data/numerator.xlsx
@@ -208,7 +208,7 @@
     <t xml:space="preserve">Счет-фактура</t>
   </si>
   <si>
-    <t xml:space="preserve">OФ</t>
+    <t xml:space="preserve">ФA</t>
   </si>
   <si>
     <t xml:space="preserve">Оптовый прайс</t>
@@ -470,7 +470,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.38"/>
